--- a/Electrical/Test Boards/Lights_Breakout/BOM.xlsx
+++ b/Electrical/Test Boards/Lights_Breakout/BOM.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Designator:</t>
   </si>
@@ -39,6 +39,75 @@
   </si>
   <si>
     <t>Link (Alternate):</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>IPD30N06S2L23ATMA3</t>
+  </si>
+  <si>
+    <t>N-Channel MOSFET</t>
+  </si>
+  <si>
+    <t>http://www.infineon.com/dgdl/Infineon-IPD30N06S2L_23-DS-v01_00-en.pdf?fileId=db3a304412b407950112b433bafe5d69</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/infineon-technologies/IPD30N06S2L23ATMA3/IPD30N06S2L23ATMA3CT-ND/5440904</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Infineon-Technologies/IPD30N06S2L23ATMA3/?qs=nKAiUEXvm/A3t2VUC031Ag==</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1002V</t>
+  </si>
+  <si>
+    <t>MOSFET Gate Pull-down Resistor, 10K Ohm</t>
+  </si>
+  <si>
+    <t>http://industrial.panasonic.com/www-cgi/jvcr13pz.cgi?E+PZ+3+AOA0002+ERJ3EKF1002V+7+WW</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERJ-3EKF1002V/P10.0KHCT-ND/198102</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Panasonic/ERJ-3EKF1002V/?qs=H7k1u0Mp9JSrGPQ5/5COuw==</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1000V</t>
+  </si>
+  <si>
+    <t>MOSFET Gate Current Limit Resistor, 100 Ohm</t>
+  </si>
+  <si>
+    <t>http://industrial.panasonic.com/www-cgi/jvcr13pz.cgi?E+PZ+3+AOA0002+ERJ3EKF1000V+7+WW</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERJ-3EKF1000V/P100HCT-ND/198109</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Panasonic/ERJ-3EKF1000V/?qs=H7k1u0Mp9JS7i8KGO5m47A==</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>Lights Screw Terminal, 01X03</t>
+  </si>
+  <si>
+    <t>https://media.digikey.com/pdf/Data Sheets/Phoenix Contact PDFs/1935174.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/phoenix-contact/1935174/277-1578-ND/568615</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ProductDetail/Phoenix-Contact/1935174/?qs=QWULklcAmSR8B7o4YouITA==</t>
   </si>
   <si>
     <t>Cost/Board:</t>
@@ -180,8 +249,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -220,7 +289,7 @@
   <dimension ref="A1:AMI65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.35"/>
@@ -229,7 +298,7 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.6173469387755"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="1" width="10.1428571428571"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="26.8112244897959"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="38.0663265306122"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="47.9744897959184"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="20.4183673469388"/>
     <col collapsed="false" hidden="false" max="8" min="7" style="1" width="27.0867346938776"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="31.9591836734694"/>
@@ -1279,18 +1348,30 @@
       <c r="AMI1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="B2" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+        <v>0.88</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="I2" s="0"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
@@ -1298,18 +1379,30 @@
       <c r="AMI2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B3" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="I3" s="0"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -1317,18 +1410,30 @@
       <c r="AMI3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B4" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>25</v>
+      </c>
       <c r="I4" s="0"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -1336,18 +1441,30 @@
       <c r="AMI4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B5" s="5" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+        <v>0.53</v>
+      </c>
+      <c r="D5" s="7" t="n">
+        <v>1935174</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="I5" s="0"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1361,11 +1478,11 @@
     </row>
     <row r="7" customFormat="false" ht="17.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B7" s="11" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C7" s="6" t="n">
         <f aca="false">(C2*B2)+(C3*B3)+(C4*B4)+(C5*B5)</f>
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -1382,6 +1499,20 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="http://www.infineon.com/dgdl/Infineon-IPD30N06S2L_23-DS-v01_00-en.pdf?fileId=db3a304412b407950112b433bafe5d69"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://www.digikey.com/product-detail/en/infineon-technologies/IPD30N06S2L23ATMA3/IPD30N06S2L23ATMA3CT-ND/5440904"/>
+    <hyperlink ref="H2" r:id="rId3" display="http://www.mouser.com/ProductDetail/Infineon-Technologies/IPD30N06S2L23ATMA3/?qs=nKAiUEXvm/A3t2VUC031Ag=="/>
+    <hyperlink ref="F3" r:id="rId4" display="http://industrial.panasonic.com/www-cgi/jvcr13pz.cgi?E+PZ+3+AOA0002+ERJ3EKF1002V+7+WW"/>
+    <hyperlink ref="G3" r:id="rId5" display="https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERJ-3EKF1002V/P10.0KHCT-ND/198102"/>
+    <hyperlink ref="H3" r:id="rId6" display="http://www.mouser.com/ProductDetail/Panasonic/ERJ-3EKF1002V/?qs=H7k1u0Mp9JSrGPQ5/5COuw=="/>
+    <hyperlink ref="F4" r:id="rId7" display="http://industrial.panasonic.com/www-cgi/jvcr13pz.cgi?E+PZ+3+AOA0002+ERJ3EKF1000V+7+WW"/>
+    <hyperlink ref="G4" r:id="rId8" display="https://www.digikey.com/product-detail/en/panasonic-electronic-components/ERJ-3EKF1000V/P100HCT-ND/198109"/>
+    <hyperlink ref="H4" r:id="rId9" display="http://www.mouser.com/ProductDetail/Panasonic/ERJ-3EKF1000V/?qs=H7k1u0Mp9JS7i8KGO5m47A=="/>
+    <hyperlink ref="F5" r:id="rId10" display="https://media.digikey.com/pdf/Data Sheets/Phoenix Contact PDFs/1935174.pdf"/>
+    <hyperlink ref="G5" r:id="rId11" display="https://www.digikey.com/product-detail/en/phoenix-contact/1935174/277-1578-ND/568615"/>
+    <hyperlink ref="H5" r:id="rId12" display="http://www.mouser.com/ProductDetail/Phoenix-Contact/1935174/?qs=QWULklcAmSR8B7o4YouITA=="/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
